--- a/proj_backtest_strategy/dataset/symbols.xlsx
+++ b/proj_backtest_strategy/dataset/symbols.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1412">
   <si>
     <t>Stock Symbol</t>
   </si>
@@ -51,12 +51,12 @@
     <t>BRK-B</t>
   </si>
   <si>
+    <t>AVGO</t>
+  </si>
+  <si>
     <t>LLY</t>
   </si>
   <si>
-    <t>AVGO</t>
-  </si>
-  <si>
     <t>TSM</t>
   </si>
   <si>
@@ -75,12 +75,12 @@
     <t>UNH</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>XOM</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>SPY</t>
   </si>
   <si>
@@ -135,24 +135,24 @@
     <t>KO</t>
   </si>
   <si>
+    <t>CRM</t>
+  </si>
+  <si>
     <t>MRK</t>
   </si>
   <si>
     <t>CVX</t>
   </si>
   <si>
-    <t>CRM</t>
-  </si>
-  <si>
     <t>AMD</t>
   </si>
   <si>
+    <t>SAP</t>
+  </si>
+  <si>
     <t>BABA</t>
   </si>
   <si>
-    <t>SAP</t>
-  </si>
-  <si>
     <t>TMUS</t>
   </si>
   <si>
@@ -207,21 +207,21 @@
     <t>VEA</t>
   </si>
   <si>
+    <t>MER-PK</t>
+  </si>
+  <si>
     <t>GE</t>
   </si>
   <si>
-    <t>MER-PK</t>
-  </si>
-  <si>
     <t>ABT</t>
   </si>
   <si>
+    <t>PDD</t>
+  </si>
+  <si>
     <t>WFC</t>
   </si>
   <si>
-    <t>PDD</t>
-  </si>
-  <si>
     <t>SHELL.AS</t>
   </si>
   <si>
@@ -231,15 +231,15 @@
     <t>QQQ</t>
   </si>
   <si>
+    <t>DHR</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
     <t>AXP</t>
   </si>
   <si>
-    <t>DHR</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
     <t>QCOM</t>
   </si>
   <si>
@@ -261,12 +261,12 @@
     <t>INTU</t>
   </si>
   <si>
+    <t>AMGN</t>
+  </si>
+  <si>
     <t>ISRG</t>
   </si>
   <si>
-    <t>AMGN</t>
-  </si>
-  <si>
     <t>VO</t>
   </si>
   <si>
@@ -276,33 +276,33 @@
     <t>DIS</t>
   </si>
   <si>
+    <t>AMAT</t>
+  </si>
+  <si>
     <t>NEE</t>
   </si>
   <si>
-    <t>AMAT</t>
-  </si>
-  <si>
     <t>PFE</t>
   </si>
   <si>
+    <t>UBER</t>
+  </si>
+  <si>
     <t>RTX</t>
   </si>
   <si>
-    <t>UBER</t>
+    <t>HSBC</t>
   </si>
   <si>
     <t>SPGI</t>
   </si>
   <si>
-    <t>HSBC</t>
+    <t>GS</t>
   </si>
   <si>
     <t>CMCSA</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>TTE</t>
   </si>
   <si>
@@ -312,54 +312,54 @@
     <t>ARM</t>
   </si>
   <si>
+    <t>TBC</t>
+  </si>
+  <si>
     <t>LOW</t>
   </si>
   <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t>UL</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TD-PFI.TO</t>
+  </si>
+  <si>
+    <t>BHP</t>
+  </si>
+  <si>
     <t>HDB</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>TD-PFI.TO</t>
-  </si>
-  <si>
-    <t>BHP</t>
+    <t>PGR</t>
   </si>
   <si>
     <t>SHOP.TO</t>
   </si>
   <si>
-    <t>PGR</t>
-  </si>
-  <si>
     <t>UNP</t>
   </si>
   <si>
+    <t>TTE.PA</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
     <t>TD.TO</t>
   </si>
   <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>TTE.PA</t>
-  </si>
-  <si>
     <t>LMT</t>
   </si>
   <si>
+    <t>UNA.AS</t>
+  </si>
+  <si>
     <t>BLK</t>
   </si>
   <si>
-    <t>UNA.AS</t>
-  </si>
-  <si>
     <t>HON</t>
   </si>
   <si>
@@ -390,10 +390,13 @@
     <t>BSX</t>
   </si>
   <si>
+    <t>IEFA</t>
+  </si>
+  <si>
     <t>SAN.PA</t>
   </si>
   <si>
-    <t>IEFA</t>
+    <t>VRTX</t>
   </si>
   <si>
     <t>ENB.TO</t>
@@ -402,18 +405,15 @@
     <t>NKE</t>
   </si>
   <si>
-    <t>VRTX</t>
+    <t>ENB-PA.TO</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>ENB-PN.TO</t>
   </si>
   <si>
-    <t>ENB-PA.TO</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>ENB-PT.TO</t>
   </si>
   <si>
@@ -423,15 +423,15 @@
     <t>PANW</t>
   </si>
   <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>SCHW</t>
+  </si>
+  <si>
     <t>KKR</t>
   </si>
   <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>SCHW</t>
-  </si>
-  <si>
     <t>MU</t>
   </si>
   <si>
@@ -447,12 +447,12 @@
     <t>CB</t>
   </si>
   <si>
+    <t>ADI</t>
+  </si>
+  <si>
     <t>ELV</t>
   </si>
   <si>
-    <t>ADI</t>
-  </si>
-  <si>
     <t>MDT</t>
   </si>
   <si>
@@ -462,84 +462,84 @@
     <t>RIO</t>
   </si>
   <si>
+    <t>DE</t>
+  </si>
+  <si>
     <t>CDI.PA</t>
   </si>
   <si>
-    <t>DE</t>
+    <t>BN.TO</t>
   </si>
   <si>
     <t>MMC</t>
   </si>
   <si>
-    <t>BN.TO</t>
-  </si>
-  <si>
     <t>PLD</t>
   </si>
   <si>
+    <t>CNQ.TO</t>
+  </si>
+  <si>
     <t>REGN</t>
   </si>
   <si>
-    <t>CNQ.TO</t>
+    <t>FI</t>
   </si>
   <si>
     <t>BX</t>
   </si>
   <si>
-    <t>FI</t>
-  </si>
-  <si>
     <t>IWF</t>
   </si>
   <si>
+    <t>KLAC</t>
+  </si>
+  <si>
     <t>SHOP</t>
   </si>
   <si>
+    <t>EP-PC</t>
+  </si>
+  <si>
     <t>SBUX</t>
   </si>
   <si>
+    <t>LRCX</t>
+  </si>
+  <si>
     <t>BMY</t>
   </si>
   <si>
-    <t>EP-PC</t>
-  </si>
-  <si>
-    <t>LRCX</t>
-  </si>
-  <si>
-    <t>KLAC</t>
-  </si>
-  <si>
     <t>GILD</t>
   </si>
   <si>
+    <t>CP.TO</t>
+  </si>
+  <si>
     <t>TD</t>
   </si>
   <si>
-    <t>CP.TO</t>
-  </si>
-  <si>
     <t>MELI</t>
   </si>
   <si>
+    <t>TRI.TO</t>
+  </si>
+  <si>
     <t>IBN</t>
   </si>
   <si>
-    <t>TRI.TO</t>
-  </si>
-  <si>
     <t>VIG</t>
   </si>
   <si>
     <t>AMT</t>
   </si>
   <si>
+    <t>AIR.PA</t>
+  </si>
+  <si>
     <t>UBS</t>
   </si>
   <si>
-    <t>AIR.PA</t>
-  </si>
-  <si>
     <t>HCA</t>
   </si>
   <si>
@@ -561,27 +561,27 @@
     <t>SOJC</t>
   </si>
   <si>
+    <t>SOJE</t>
+  </si>
+  <si>
+    <t>PRX.AS</t>
+  </si>
+  <si>
     <t>SO</t>
   </si>
   <si>
-    <t>SOJE</t>
-  </si>
-  <si>
-    <t>PRX.AS</t>
-  </si>
-  <si>
     <t>SOJD</t>
   </si>
   <si>
     <t>EL.PA</t>
   </si>
   <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
     <t>SHW</t>
   </si>
   <si>
-    <t>MDLZ</t>
-  </si>
-  <si>
     <t>INFY</t>
   </si>
   <si>
@@ -591,108 +591,111 @@
     <t>PLTR</t>
   </si>
   <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>CSU.TO</t>
+  </si>
+  <si>
+    <t>SCCO</t>
+  </si>
+  <si>
+    <t>BMO.TO</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
     <t>PBR-A</t>
   </si>
   <si>
-    <t>CSU.TO</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>VGT</t>
-  </si>
-  <si>
-    <t>SCCO</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
-    <t>PBR</t>
-  </si>
-  <si>
-    <t>BMO.TO</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
     <t>IJH</t>
   </si>
   <si>
+    <t>ENB</t>
+  </si>
+  <si>
     <t>TT</t>
   </si>
   <si>
-    <t>ENB</t>
-  </si>
-  <si>
     <t>BNS.TO</t>
   </si>
   <si>
     <t>DUK</t>
   </si>
   <si>
+    <t>FISV</t>
+  </si>
+  <si>
     <t>RELX</t>
   </si>
   <si>
     <t>ZTS</t>
   </si>
   <si>
+    <t>DUKB</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
     <t>MCO</t>
   </si>
   <si>
-    <t>BP</t>
+    <t>ABNB</t>
+  </si>
+  <si>
+    <t>WM</t>
   </si>
   <si>
     <t>MO</t>
   </si>
   <si>
-    <t>ABNB</t>
-  </si>
-  <si>
-    <t>DUKB</t>
-  </si>
-  <si>
-    <t>WM</t>
-  </si>
-  <si>
     <t>SAF.PA</t>
   </si>
   <si>
+    <t>NGT.TO</t>
+  </si>
+  <si>
     <t>CVS</t>
   </si>
   <si>
-    <t>NGT.TO</t>
-  </si>
-  <si>
     <t>CTAS</t>
   </si>
   <si>
+    <t>SMFG</t>
+  </si>
+  <si>
     <t>EQIX</t>
   </si>
   <si>
     <t>CEG</t>
   </si>
   <si>
-    <t>SMFG</t>
-  </si>
-  <si>
     <t>SNPS</t>
   </si>
   <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
     <t>CL</t>
   </si>
   <si>
-    <t>RACE</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
     <t>PYPL</t>
   </si>
   <si>
@@ -702,21 +705,21 @@
     <t>BN</t>
   </si>
   <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>CNQ</t>
+  </si>
+  <si>
+    <t>REN.AS</t>
+  </si>
+  <si>
     <t>APO</t>
   </si>
   <si>
-    <t>CMG</t>
-  </si>
-  <si>
-    <t>CME</t>
-  </si>
-  <si>
-    <t>REN.AS</t>
-  </si>
-  <si>
-    <t>CNQ</t>
-  </si>
-  <si>
     <t>APH</t>
   </si>
   <si>
@@ -726,30 +729,30 @@
     <t>MSI</t>
   </si>
   <si>
+    <t>CRWD</t>
+  </si>
+  <si>
     <t>NOC</t>
   </si>
   <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>EFA</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
     <t>TDG</t>
   </si>
   <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>EFA</t>
-  </si>
-  <si>
-    <t>AON</t>
-  </si>
-  <si>
     <t>CM.TO</t>
   </si>
   <si>
     <t>ITW</t>
   </si>
   <si>
-    <t>CRWD</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
@@ -762,15 +765,15 @@
     <t>EOG</t>
   </si>
   <si>
+    <t>WELL</t>
+  </si>
+  <si>
     <t>IWDA.AS</t>
   </si>
   <si>
     <t>TRI</t>
   </si>
   <si>
-    <t>WELL</t>
-  </si>
-  <si>
     <t>DEO</t>
   </si>
   <si>
@@ -789,18 +792,18 @@
     <t>VYM</t>
   </si>
   <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
     <t>GEV</t>
   </si>
   <si>
     <t>CARR</t>
   </si>
   <si>
-    <t>PNC</t>
-  </si>
-  <si>
-    <t>ECL</t>
-  </si>
-  <si>
     <t>CNI</t>
   </si>
   <si>
@@ -816,15 +819,15 @@
     <t>SU.TO</t>
   </si>
   <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>BNP.PA</t>
+  </si>
+  <si>
     <t>APD</t>
   </si>
   <si>
-    <t>BNP.PA</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
     <t>EQNR</t>
   </si>
   <si>
@@ -843,15 +846,15 @@
     <t>IWM</t>
   </si>
   <si>
+    <t>BMO</t>
+  </si>
+  <si>
     <t>IEMG</t>
   </si>
   <si>
     <t>MCK</t>
   </si>
   <si>
-    <t>BMO</t>
-  </si>
-  <si>
     <t>WDAY</t>
   </si>
   <si>
@@ -861,54 +864,54 @@
     <t>FDX</t>
   </si>
   <si>
+    <t>IJR</t>
+  </si>
+  <si>
     <t>TRP.TO</t>
   </si>
   <si>
-    <t>IJR</t>
+    <t>NU</t>
   </si>
   <si>
     <t>NGG</t>
   </si>
   <si>
+    <t>BNS</t>
+  </si>
+  <si>
     <t>RSG</t>
   </si>
   <si>
-    <t>NU</t>
+    <t>WCN.TO</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
   <si>
     <t>EPD</t>
   </si>
   <si>
-    <t>WCN.TO</t>
-  </si>
-  <si>
     <t>SLB</t>
   </si>
   <si>
-    <t>BNS</t>
-  </si>
-  <si>
-    <t>EMR</t>
-  </si>
-  <si>
     <t>GLD</t>
   </si>
   <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>MRVL</t>
+  </si>
+  <si>
+    <t>XLK</t>
+  </si>
+  <si>
     <t>AJG</t>
   </si>
   <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>XLK</t>
-  </si>
-  <si>
     <t>AFL</t>
   </si>
   <si>
-    <t>FTNT</t>
-  </si>
-  <si>
     <t>SCHD</t>
   </si>
   <si>
@@ -927,54 +930,54 @@
     <t>WMB</t>
   </si>
   <si>
+    <t>NXPI</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
     <t>DHI</t>
   </si>
   <si>
-    <t>PSA</t>
-  </si>
-  <si>
-    <t>NXPI</t>
-  </si>
-  <si>
     <t>ADSK</t>
   </si>
   <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>BSV</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
     <t>JD</t>
   </si>
   <si>
-    <t>BSV</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
     <t>MET</t>
   </si>
   <si>
-    <t>TLT</t>
-  </si>
-  <si>
     <t>HLT</t>
   </si>
   <si>
+    <t>IMO.TO</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
     <t>ROP</t>
   </si>
   <si>
+    <t>IWD</t>
+  </si>
+  <si>
     <t>COF</t>
   </si>
   <si>
-    <t>BBVA</t>
-  </si>
-  <si>
-    <t>IWD</t>
-  </si>
-  <si>
     <t>FANG</t>
   </si>
   <si>
-    <t>IMO.TO</t>
-  </si>
-  <si>
     <t>PSX</t>
   </si>
   <si>
@@ -987,36 +990,39 @@
     <t>ET</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
     <t>ING</t>
   </si>
   <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>CCZ</t>
+  </si>
+  <si>
     <t>OKE</t>
   </si>
   <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>NSC</t>
-  </si>
-  <si>
     <t>MPC</t>
   </si>
   <si>
-    <t>CCZ</t>
+    <t>BK</t>
   </si>
   <si>
     <t>NTES</t>
   </si>
   <si>
-    <t>BK</t>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>AEM.TO</t>
   </si>
   <si>
     <t>SE</t>
   </si>
   <si>
-    <t>SPG</t>
-  </si>
-  <si>
     <t>PCAR</t>
   </si>
   <si>
@@ -1026,9 +1032,6 @@
     <t>VT</t>
   </si>
   <si>
-    <t>AEM.TO</t>
-  </si>
-  <si>
     <t>L.TO</t>
   </si>
   <si>
@@ -1041,27 +1044,27 @@
     <t>O</t>
   </si>
   <si>
+    <t>MFC</t>
+  </si>
+  <si>
     <t>IVW</t>
   </si>
   <si>
-    <t>MFC</t>
+    <t>VCIT</t>
+  </si>
+  <si>
+    <t>TRV</t>
   </si>
   <si>
     <t>URI</t>
   </si>
   <si>
-    <t>VCIT</t>
-  </si>
-  <si>
-    <t>TRV</t>
+    <t>VUSA.AS</t>
   </si>
   <si>
     <t>AZO</t>
   </si>
   <si>
-    <t>VUSA.AS</t>
-  </si>
-  <si>
     <t>KMI</t>
   </si>
   <si>
@@ -1077,135 +1080,141 @@
     <t>SRE</t>
   </si>
   <si>
+    <t>SU</t>
+  </si>
+  <si>
     <t>JCI</t>
   </si>
   <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>INGA.AS</t>
+  </si>
+  <si>
     <t>SREA</t>
   </si>
   <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>INGA.AS</t>
-  </si>
-  <si>
-    <t>HMC</t>
+    <t>PAYX</t>
   </si>
   <si>
     <t>GWW</t>
   </si>
   <si>
-    <t>PAYX</t>
+    <t>AMX</t>
   </si>
   <si>
     <t>RCL</t>
   </si>
   <si>
-    <t>AMX</t>
-  </si>
-  <si>
     <t>QUAL</t>
   </si>
   <si>
+    <t>MNST</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
+    <t>KDP</t>
+  </si>
+  <si>
     <t>OXY</t>
   </si>
   <si>
-    <t>KDP</t>
-  </si>
-  <si>
-    <t>MNST</t>
+    <t>AIG</t>
   </si>
   <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>AIG</t>
-  </si>
-  <si>
     <t>FICO</t>
   </si>
   <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>ABX.TO</t>
+  </si>
+  <si>
     <t>AMP</t>
   </si>
   <si>
+    <t>IAU</t>
+  </si>
+  <si>
     <t>LEN</t>
   </si>
   <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>IAU</t>
-  </si>
-  <si>
-    <t>ABX.TO</t>
+    <t>TEAM</t>
   </si>
   <si>
     <t>CCI</t>
   </si>
   <si>
+    <t>ALC</t>
+  </si>
+  <si>
     <t>KMB</t>
   </si>
   <si>
+    <t>LYG</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
     <t>MSCI</t>
   </si>
   <si>
-    <t>ALC</t>
-  </si>
-  <si>
-    <t>TEAM</t>
+    <t>VALE</t>
   </si>
   <si>
     <t>CHTR</t>
   </si>
   <si>
-    <t>LYG</t>
-  </si>
-  <si>
-    <t>FIS</t>
+    <t>SPLG</t>
   </si>
   <si>
     <t>ROST</t>
   </si>
   <si>
+    <t>TRP</t>
+  </si>
+  <si>
+    <t>SCHX</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>TRP</t>
-  </si>
-  <si>
-    <t>SPLG</t>
-  </si>
-  <si>
-    <t>VALE</t>
-  </si>
-  <si>
-    <t>SCHX</t>
-  </si>
-  <si>
     <t>WCN</t>
   </si>
   <si>
     <t>HLN</t>
   </si>
   <si>
+    <t>IFC.TO</t>
+  </si>
+  <si>
+    <t>LHX</t>
+  </si>
+  <si>
     <t>CPNG</t>
   </si>
   <si>
-    <t>LHX</t>
+    <t>TD-PFJ.TO</t>
   </si>
   <si>
     <t>VLO</t>
   </si>
   <si>
-    <t>IFC.TO</t>
-  </si>
-  <si>
     <t>CMI</t>
   </si>
   <si>
+    <t>MFC-PC.TO</t>
+  </si>
+  <si>
     <t>CVE.TO</t>
   </si>
   <si>
@@ -1215,93 +1224,93 @@
     <t>TAK</t>
   </si>
   <si>
+    <t>MPWR</t>
+  </si>
+  <si>
     <t>PWR</t>
   </si>
   <si>
     <t>MPLX</t>
   </si>
   <si>
-    <t>MPWR</t>
+    <t>DSY.PA</t>
+  </si>
+  <si>
+    <t>BCS</t>
   </si>
   <si>
     <t>TEL</t>
   </si>
   <si>
-    <t>DSY.PA</t>
-  </si>
-  <si>
-    <t>BCS</t>
+    <t>XVALO.MC</t>
   </si>
   <si>
     <t>PEG</t>
   </si>
   <si>
-    <t>XVALO.MC</t>
-  </si>
-  <si>
     <t>FFH.TO</t>
   </si>
   <si>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>NA.TO</t>
+  </si>
+  <si>
     <t>COR</t>
   </si>
   <si>
+    <t>PRS</t>
+  </si>
+  <si>
     <t>STZ</t>
   </si>
   <si>
-    <t>NA.TO</t>
-  </si>
-  <si>
-    <t>PRS</t>
-  </si>
-  <si>
     <t>PRU</t>
   </si>
   <si>
+    <t>HEIA.AS</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>PRH</t>
+  </si>
+  <si>
+    <t>MS-PQ</t>
+  </si>
+  <si>
     <t>SQ</t>
   </si>
   <si>
-    <t>LNG</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>HEIA.AS</t>
+    <t>PFH</t>
+  </si>
+  <si>
+    <t>GWO.TO</t>
+  </si>
+  <si>
+    <t>HES</t>
+  </si>
+  <si>
+    <t>UMG.AS</t>
+  </si>
+  <si>
+    <t>ACGL</t>
+  </si>
+  <si>
+    <t>GWO-PN.TO</t>
+  </si>
+  <si>
+    <t>FLUT</t>
+  </si>
+  <si>
+    <t>GWO-PM.TO</t>
   </si>
   <si>
     <t>VST</t>
   </si>
   <si>
-    <t>MS-PQ</t>
-  </si>
-  <si>
-    <t>HES</t>
-  </si>
-  <si>
-    <t>PFH</t>
-  </si>
-  <si>
-    <t>PRH</t>
-  </si>
-  <si>
-    <t>GWO.TO</t>
-  </si>
-  <si>
-    <t>UMG.AS</t>
-  </si>
-  <si>
-    <t>GWO-PN.TO</t>
-  </si>
-  <si>
-    <t>ACGL</t>
-  </si>
-  <si>
-    <t>GWO-PM.TO</t>
-  </si>
-  <si>
-    <t>FLUT</t>
-  </si>
-  <si>
     <t>ADYEN.AS</t>
   </si>
   <si>
@@ -1311,64 +1320,70 @@
     <t>SCHF</t>
   </si>
   <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>BIV</t>
+  </si>
+  <si>
     <t>IQV</t>
   </si>
   <si>
-    <t>BIV</t>
-  </si>
-  <si>
-    <t>KHC</t>
-  </si>
-  <si>
-    <t>IMO</t>
+    <t>TD-PFA.TO</t>
+  </si>
+  <si>
+    <t>ENB-PFA.TO</t>
   </si>
   <si>
     <t>PCG</t>
   </si>
   <si>
+    <t>ODFL</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>BN.PA</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>MCHP</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>OTIS</t>
+  </si>
+  <si>
+    <t>GEHC</t>
+  </si>
+  <si>
+    <t>BCE.TO</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
     <t>TCOM</t>
   </si>
   <si>
-    <t>ENB-PFA.TO</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>HWM</t>
-  </si>
-  <si>
-    <t>BN.PA</t>
-  </si>
-  <si>
-    <t>ODFL</t>
-  </si>
-  <si>
-    <t>MCHP</t>
+    <t>SGO.PA</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>GEHC</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>BCE.TO</t>
-  </si>
-  <si>
-    <t>OTIS</t>
-  </si>
-  <si>
-    <t>EW</t>
-  </si>
-  <si>
-    <t>SGO.PA</t>
-  </si>
-  <si>
-    <t>SNOW</t>
+    <t>COIN</t>
   </si>
   <si>
     <t>KVUE</t>
@@ -1377,66 +1392,63 @@
     <t>XLV</t>
   </si>
   <si>
-    <t>COIN</t>
-  </si>
-  <si>
     <t>VRT</t>
   </si>
   <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>ITOT</t>
+  </si>
+  <si>
     <t>FAST</t>
   </si>
   <si>
-    <t>XLF</t>
-  </si>
-  <si>
-    <t>ITOT</t>
+    <t>FERG</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
   <si>
     <t>KR</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>FERG</t>
+    <t>IXUS</t>
   </si>
   <si>
     <t>IR</t>
   </si>
   <si>
-    <t>IXUS</t>
-  </si>
-  <si>
     <t>CVNA</t>
   </si>
   <si>
     <t>GIS</t>
   </si>
   <si>
+    <t>AEM</t>
+  </si>
+  <si>
+    <t>IWB</t>
+  </si>
+  <si>
+    <t>ACA.PA</t>
+  </si>
+  <si>
+    <t>DOL.TO</t>
+  </si>
+  <si>
+    <t>KIM-PN</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
     <t>EXC</t>
   </si>
   <si>
-    <t>IWB</t>
-  </si>
-  <si>
-    <t>DOL.TO</t>
-  </si>
-  <si>
-    <t>GLW</t>
-  </si>
-  <si>
-    <t>ACA.PA</t>
-  </si>
-  <si>
-    <t>KIM-PN</t>
-  </si>
-  <si>
     <t>MUB</t>
   </si>
   <si>
-    <t>AEM</t>
-  </si>
-  <si>
     <t>CTVA</t>
   </si>
   <si>
@@ -1446,261 +1458,270 @@
     <t>IDXX</t>
   </si>
   <si>
+    <t>NWG</t>
+  </si>
+  <si>
     <t>XLE</t>
   </si>
   <si>
-    <t>NWG</t>
-  </si>
-  <si>
     <t>STLA</t>
   </si>
   <si>
+    <t>BSBR</t>
+  </si>
+  <si>
+    <t>ENB-PFK.TO</t>
+  </si>
+  <si>
     <t>LVS</t>
   </si>
   <si>
     <t>VRSK</t>
   </si>
   <si>
+    <t>WPM.TO</t>
+  </si>
+  <si>
+    <t>VGIT</t>
+  </si>
+  <si>
+    <t>HSY</t>
+  </si>
+  <si>
+    <t>ENGI.PA</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>VTEB</t>
+  </si>
+  <si>
+    <t>YUM</t>
+  </si>
+  <si>
+    <t>BKR</t>
+  </si>
+  <si>
+    <t>ABEV</t>
+  </si>
+  <si>
+    <t>CTSH</t>
+  </si>
+  <si>
     <t>BIDU</t>
   </si>
   <si>
-    <t>BSBR</t>
-  </si>
-  <si>
-    <t>VGIT</t>
-  </si>
-  <si>
-    <t>HSY</t>
-  </si>
-  <si>
-    <t>CNC</t>
-  </si>
-  <si>
-    <t>BKR</t>
-  </si>
-  <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>ENGI.PA</t>
-  </si>
-  <si>
-    <t>WPM.TO</t>
-  </si>
-  <si>
-    <t>YUM</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>VTEB</t>
-  </si>
-  <si>
-    <t>ABEV</t>
-  </si>
-  <si>
-    <t>CTSH</t>
-  </si>
-  <si>
     <t>CBRE</t>
   </si>
   <si>
     <t>SYY</t>
   </si>
   <si>
+    <t>JEPI</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>EXR</t>
   </si>
   <si>
-    <t>JEPI</t>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>TECK-A.TO</t>
   </si>
   <si>
     <t>ALNY</t>
   </si>
   <si>
+    <t>CCEP</t>
+  </si>
+  <si>
+    <t>TRGP</t>
+  </si>
+  <si>
     <t>DFS</t>
   </si>
   <si>
-    <t>NUE</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>CCEP</t>
-  </si>
-  <si>
-    <t>TRGP</t>
-  </si>
-  <si>
     <t>HPQ</t>
   </si>
   <si>
+    <t>IVE</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
     <t>ED</t>
   </si>
   <si>
-    <t>IVE</t>
+    <t>STLAP.PA</t>
+  </si>
+  <si>
+    <t>TECK-B.TO</t>
   </si>
   <si>
     <t>EFX</t>
   </si>
   <si>
-    <t>STLAP.PA</t>
+    <t>RMD</t>
   </si>
   <si>
     <t>IRM</t>
   </si>
   <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>RMD</t>
+    <t>VNQ</t>
   </si>
   <si>
     <t>XEL</t>
   </si>
   <si>
-    <t>VNQ</t>
-  </si>
-  <si>
-    <t>TECK-A.TO</t>
+    <t>EEM</t>
+  </si>
+  <si>
+    <t>WKL.AS</t>
+  </si>
+  <si>
+    <t>DIA</t>
   </si>
   <si>
     <t>GIB-A.TO</t>
   </si>
   <si>
-    <t>EEM</t>
-  </si>
-  <si>
-    <t>WKL.AS</t>
-  </si>
-  <si>
-    <t>TECK-B.TO</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
     <t>MBB</t>
   </si>
   <si>
+    <t>QQQM</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>VEEV</t>
+  </si>
+  <si>
+    <t>PPL-PA.TO</t>
+  </si>
+  <si>
+    <t>PPL.TO</t>
+  </si>
+  <si>
+    <t>PPL-PQ.TO</t>
+  </si>
+  <si>
+    <t>VICI</t>
+  </si>
+  <si>
+    <t>BIL</t>
+  </si>
+  <si>
     <t>MSTR</t>
   </si>
   <si>
-    <t>QQQM</t>
-  </si>
-  <si>
-    <t>HIG</t>
-  </si>
-  <si>
-    <t>VEEV</t>
-  </si>
-  <si>
-    <t>PPL.TO</t>
-  </si>
-  <si>
-    <t>PPL-PA.TO</t>
-  </si>
-  <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>BIL</t>
-  </si>
-  <si>
-    <t>VICI</t>
-  </si>
-  <si>
     <t>IEF</t>
   </si>
   <si>
     <t>WDS</t>
   </si>
   <si>
+    <t>PPL-PC.TO</t>
+  </si>
+  <si>
+    <t>NTR.TO</t>
+  </si>
+  <si>
+    <t>IUSB</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>SLF</t>
+  </si>
+  <si>
+    <t>SCHG</t>
+  </si>
+  <si>
+    <t>T.TO</t>
+  </si>
+  <si>
     <t>GBTC</t>
   </si>
   <si>
-    <t>IUSB</t>
-  </si>
-  <si>
-    <t>NTR.TO</t>
-  </si>
-  <si>
-    <t>CVE</t>
-  </si>
-  <si>
-    <t>SLF</t>
-  </si>
-  <si>
-    <t>SCHG</t>
-  </si>
-  <si>
-    <t>T.TO</t>
+    <t>WIT</t>
+  </si>
+  <si>
+    <t>CCEP.AS</t>
   </si>
   <si>
     <t>MLM</t>
   </si>
   <si>
+    <t>XYL</t>
+  </si>
+  <si>
+    <t>LQD</t>
+  </si>
+  <si>
+    <t>FNV.TO</t>
+  </si>
+  <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>XYL</t>
-  </si>
-  <si>
-    <t>CCEP.AS</t>
-  </si>
-  <si>
-    <t>WIT</t>
-  </si>
-  <si>
-    <t>LQD</t>
+    <t>AXON</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>LULU</t>
+  </si>
+  <si>
+    <t>TSCO</t>
   </si>
   <si>
     <t>EIX</t>
   </si>
   <si>
-    <t>AXON</t>
-  </si>
-  <si>
-    <t>TSCO</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FNV.TO</t>
-  </si>
-  <si>
-    <t>VMC</t>
-  </si>
-  <si>
-    <t>WAB</t>
-  </si>
-  <si>
-    <t>LULU</t>
+    <t>GRMN</t>
   </si>
   <si>
     <t>UCB.BR</t>
   </si>
   <si>
-    <t>GRMN</t>
-  </si>
-  <si>
     <t>RI.PA</t>
   </si>
   <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>ARGX</t>
+  </si>
+  <si>
     <t>TW</t>
   </si>
   <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>ARGX</t>
-  </si>
-  <si>
     <t>SCHB</t>
   </si>
   <si>
@@ -1710,12 +1731,12 @@
     <t>DFAC</t>
   </si>
   <si>
+    <t>CAP.PA</t>
+  </si>
+  <si>
     <t>VOE</t>
   </si>
   <si>
-    <t>CAP.PA</t>
-  </si>
-  <si>
     <t>VXF</t>
   </si>
   <si>
@@ -1725,25 +1746,28 @@
     <t>HEI</t>
   </si>
   <si>
+    <t>AVB</t>
+  </si>
+  <si>
     <t>MTD</t>
   </si>
   <si>
-    <t>AVB</t>
+    <t>LYB</t>
+  </si>
+  <si>
+    <t>DSFIR.AS</t>
+  </si>
+  <si>
+    <t>WSP.TO</t>
+  </si>
+  <si>
+    <t>IWR</t>
   </si>
   <si>
     <t>CSGP</t>
   </si>
   <si>
-    <t>LYB</t>
-  </si>
-  <si>
-    <t>DSFIR.AS</t>
-  </si>
-  <si>
-    <t>IWR</t>
-  </si>
-  <si>
-    <t>WSP.TO</t>
+    <t>OWL</t>
   </si>
   <si>
     <t>QSR.TO</t>
@@ -1755,9 +1779,6 @@
     <t>ROK</t>
   </si>
   <si>
-    <t>OWL</t>
-  </si>
-  <si>
     <t>VONG</t>
   </si>
   <si>
@@ -1767,72 +1788,72 @@
     <t>CCO.TO</t>
   </si>
   <si>
+    <t>ON</t>
+  </si>
+  <si>
     <t>HO.PA</t>
   </si>
   <si>
     <t>BCE</t>
   </si>
   <si>
-    <t>ON</t>
-  </si>
-  <si>
     <t>MTB-PJ</t>
   </si>
   <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>PHG</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>WEC</t>
+  </si>
+  <si>
     <t>CDW</t>
   </si>
   <si>
-    <t>WEC</t>
-  </si>
-  <si>
-    <t>PHG</t>
-  </si>
-  <si>
-    <t>MTB</t>
+    <t>BRO</t>
   </si>
   <si>
     <t>WTW</t>
   </si>
   <si>
-    <t>PPG</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>ZS</t>
+    <t>KER.PA</t>
+  </si>
+  <si>
+    <t>ORAN</t>
+  </si>
+  <si>
+    <t>FTS.TO</t>
+  </si>
+  <si>
+    <t>FER</t>
+  </si>
+  <si>
+    <t>SPYG</t>
+  </si>
+  <si>
+    <t>CHT</t>
   </si>
   <si>
     <t>NVR</t>
   </si>
   <si>
-    <t>KER.PA</t>
-  </si>
-  <si>
-    <t>ORAN</t>
-  </si>
-  <si>
-    <t>FTS.TO</t>
-  </si>
-  <si>
-    <t>FER</t>
-  </si>
-  <si>
-    <t>SPYG</t>
-  </si>
-  <si>
-    <t>CHT</t>
-  </si>
-  <si>
     <t>WN.TO</t>
   </si>
   <si>
+    <t>FITB</t>
+  </si>
+  <si>
     <t>PHM</t>
   </si>
   <si>
-    <t>FITB</t>
-  </si>
-  <si>
     <t>ANSS</t>
   </si>
   <si>
@@ -1845,24 +1866,24 @@
     <t>FCNCA</t>
   </si>
   <si>
+    <t>RCI-B.TO</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>VWRL.AS</t>
+  </si>
+  <si>
+    <t>HUBS</t>
+  </si>
+  <si>
+    <t>AD.AS</t>
+  </si>
+  <si>
     <t>RCI-A.TO</t>
   </si>
   <si>
-    <t>VV</t>
-  </si>
-  <si>
-    <t>VWRL.AS</t>
-  </si>
-  <si>
-    <t>RCI-B.TO</t>
-  </si>
-  <si>
-    <t>AD.AS</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
     <t>ASM.AS</t>
   </si>
   <si>
@@ -1875,22 +1896,22 @@
     <t>DXCM</t>
   </si>
   <si>
-    <t>CAH</t>
-  </si>
-  <si>
     <t>POW.TO</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>GOVT</t>
+  </si>
+  <si>
     <t>ELC</t>
   </si>
   <si>
-    <t>GOVT</t>
-  </si>
-  <si>
-    <t>ETR</t>
+    <t>WPM</t>
   </si>
   <si>
     <t>VLTO</t>
@@ -1902,6 +1923,9 @@
     <t>CALF</t>
   </si>
   <si>
+    <t>XT0D.L</t>
+  </si>
+  <si>
     <t>SPTS</t>
   </si>
   <si>
@@ -1920,6 +1944,15 @@
     <t>ZEB.TO</t>
   </si>
   <si>
+    <t>GSY</t>
+  </si>
+  <si>
+    <t>FETH</t>
+  </si>
+  <si>
+    <t>IYW</t>
+  </si>
+  <si>
     <t>ICICIB22.NS</t>
   </si>
   <si>
@@ -1950,15 +1983,21 @@
     <t>FNGD</t>
   </si>
   <si>
+    <t>CNYA</t>
+  </si>
+  <si>
     <t>2B7S.DE</t>
   </si>
   <si>
+    <t>WGMI</t>
+  </si>
+  <si>
+    <t>NVDQ</t>
+  </si>
+  <si>
     <t>BITX</t>
   </si>
   <si>
-    <t>NVDQ</t>
-  </si>
-  <si>
     <t>BAR</t>
   </si>
   <si>
@@ -1971,108 +2010,168 @@
     <t>KWEB</t>
   </si>
   <si>
+    <t>MASPTOP50.NS</t>
+  </si>
+  <si>
     <t>SRT.SI</t>
   </si>
   <si>
-    <t>MASPTOP50.NS</t>
+    <t>GOVI</t>
+  </si>
+  <si>
+    <t>IBDP</t>
+  </si>
+  <si>
+    <t>IYR</t>
   </si>
   <si>
     <t>SCHE</t>
   </si>
   <si>
-    <t>IYR</t>
+    <t>PTIR</t>
+  </si>
+  <si>
+    <t>DGS</t>
+  </si>
+  <si>
+    <t>DFLV</t>
+  </si>
+  <si>
+    <t>UCO</t>
+  </si>
+  <si>
+    <t>HELO</t>
+  </si>
+  <si>
+    <t>FPEI</t>
+  </si>
+  <si>
+    <t>IUUS.L</t>
+  </si>
+  <si>
+    <t>FBTC</t>
+  </si>
+  <si>
+    <t>HEJD</t>
+  </si>
+  <si>
+    <t>EWZ</t>
+  </si>
+  <si>
+    <t>SCHP</t>
+  </si>
+  <si>
+    <t>36BA.DE</t>
+  </si>
+  <si>
+    <t>IYZ</t>
+  </si>
+  <si>
+    <t>KOLD</t>
+  </si>
+  <si>
+    <t>DFSV</t>
+  </si>
+  <si>
+    <t>TMV</t>
+  </si>
+  <si>
+    <t>CFA.SI</t>
+  </si>
+  <si>
+    <t>IDX</t>
+  </si>
+  <si>
+    <t>EFG</t>
+  </si>
+  <si>
+    <t>EBND</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>CBUG.L</t>
+  </si>
+  <si>
+    <t>FXN</t>
+  </si>
+  <si>
+    <t>JMST</t>
+  </si>
+  <si>
+    <t>3BA.L</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>JMBS</t>
+  </si>
+  <si>
+    <t>VMID.L</t>
+  </si>
+  <si>
+    <t>PFFD</t>
+  </si>
+  <si>
+    <t>AGGU.L</t>
+  </si>
+  <si>
+    <t>IWN</t>
+  </si>
+  <si>
+    <t>SHYG</t>
+  </si>
+  <si>
+    <t>NVDL</t>
+  </si>
+  <si>
+    <t>JPIE</t>
+  </si>
+  <si>
+    <t>DFAI</t>
+  </si>
+  <si>
+    <t>DXJ</t>
   </si>
   <si>
     <t>IBC3.DE</t>
   </si>
   <si>
-    <t>UCO</t>
-  </si>
-  <si>
-    <t>FBTC</t>
-  </si>
-  <si>
-    <t>IUUS.L</t>
-  </si>
-  <si>
-    <t>RONN</t>
-  </si>
-  <si>
-    <t>EWZ</t>
-  </si>
-  <si>
-    <t>SCHP</t>
-  </si>
-  <si>
-    <t>36BA.DE</t>
-  </si>
-  <si>
-    <t>IYZ</t>
-  </si>
-  <si>
-    <t>KOLD</t>
-  </si>
-  <si>
-    <t>TMV</t>
-  </si>
-  <si>
-    <t>CFA.SI</t>
-  </si>
-  <si>
-    <t>IDX</t>
-  </si>
-  <si>
-    <t>IGV</t>
-  </si>
-  <si>
-    <t>CBUG.L</t>
-  </si>
-  <si>
-    <t>FXN</t>
-  </si>
-  <si>
-    <t>3BA.L</t>
+    <t>RDVI</t>
+  </si>
+  <si>
+    <t>FLRT</t>
+  </si>
+  <si>
+    <t>BXX.PA</t>
+  </si>
+  <si>
+    <t>IXC</t>
+  </si>
+  <si>
+    <t>BUYW</t>
+  </si>
+  <si>
+    <t>513300.SS</t>
+  </si>
+  <si>
+    <t>2B7A.DE</t>
   </si>
   <si>
     <t>DBC</t>
   </si>
   <si>
-    <t>MJ</t>
-  </si>
-  <si>
-    <t>VMID.L</t>
-  </si>
-  <si>
-    <t>PFFD</t>
-  </si>
-  <si>
-    <t>AGGU.L</t>
-  </si>
-  <si>
-    <t>SHYG</t>
-  </si>
-  <si>
-    <t>NVDL</t>
-  </si>
-  <si>
-    <t>DFAI</t>
-  </si>
-  <si>
-    <t>BXX.PA</t>
-  </si>
-  <si>
-    <t>513300.SS</t>
-  </si>
-  <si>
-    <t>2B7A.DE</t>
-  </si>
-  <si>
-    <t>IWN</t>
-  </si>
-  <si>
     <t>IBDQ</t>
   </si>
   <si>
+    <t>ARKF</t>
+  </si>
+  <si>
+    <t>OEF</t>
+  </si>
+  <si>
     <t>LABU</t>
   </si>
   <si>
@@ -2091,12 +2190,18 @@
     <t>XLRE</t>
   </si>
   <si>
+    <t>EWU</t>
+  </si>
+  <si>
     <t>XEG.TO</t>
   </si>
   <si>
     <t>TMF</t>
   </si>
   <si>
+    <t>CGMU</t>
+  </si>
+  <si>
     <t>SSO</t>
   </si>
   <si>
@@ -2112,39 +2217,69 @@
     <t>UVIX</t>
   </si>
   <si>
+    <t>CGXU</t>
+  </si>
+  <si>
+    <t>MGK</t>
+  </si>
+  <si>
     <t>SIVR</t>
   </si>
   <si>
+    <t>KSA</t>
+  </si>
+  <si>
     <t>7288.HK</t>
   </si>
   <si>
-    <t>KSA</t>
-  </si>
-  <si>
     <t>ICHN.AS</t>
   </si>
   <si>
+    <t>DFAU</t>
+  </si>
+  <si>
     <t>XME</t>
   </si>
   <si>
+    <t>EPI</t>
+  </si>
+  <si>
     <t>7233.HK</t>
   </si>
   <si>
+    <t>DFAX</t>
+  </si>
+  <si>
     <t>DLR-U.TO</t>
   </si>
   <si>
+    <t>NOBL</t>
+  </si>
+  <si>
     <t>NVD</t>
   </si>
   <si>
-    <t>NOBL</t>
-  </si>
-  <si>
     <t>FTSM</t>
   </si>
   <si>
     <t>QLD</t>
   </si>
   <si>
+    <t>GTO</t>
+  </si>
+  <si>
+    <t>FUTY</t>
+  </si>
+  <si>
+    <t>FIAX</t>
+  </si>
+  <si>
+    <t>FTGS</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
     <t>EWL</t>
   </si>
   <si>
@@ -2157,12 +2292,21 @@
     <t>EUNL.DE</t>
   </si>
   <si>
+    <t>VFH</t>
+  </si>
+  <si>
     <t>JAAA</t>
   </si>
   <si>
     <t>CON3.L</t>
   </si>
   <si>
+    <t>SPTM</t>
+  </si>
+  <si>
+    <t>FAS</t>
+  </si>
+  <si>
     <t>FELC</t>
   </si>
   <si>
@@ -2178,19 +2322,28 @@
     <t>FLOT</t>
   </si>
   <si>
+    <t>QQQW</t>
+  </si>
+  <si>
     <t>JETS</t>
   </si>
   <si>
     <t>VGSH</t>
   </si>
   <si>
+    <t>FRI</t>
+  </si>
+  <si>
     <t>TSDD</t>
   </si>
   <si>
+    <t>EMXC</t>
+  </si>
+  <si>
     <t>EWC</t>
   </si>
   <si>
-    <t>EMXC</t>
+    <t>KMLM</t>
   </si>
   <si>
     <t>XSOE</t>
@@ -2202,18 +2355,27 @@
     <t>ERY</t>
   </si>
   <si>
+    <t>FSIG</t>
+  </si>
+  <si>
     <t>GDXJ</t>
   </si>
   <si>
+    <t>EXV1.DE</t>
+  </si>
+  <si>
     <t>SARK</t>
   </si>
   <si>
-    <t>EXV1.DE</t>
-  </si>
-  <si>
     <t>YINN</t>
   </si>
   <si>
+    <t>RETL</t>
+  </si>
+  <si>
+    <t>HGD.TO</t>
+  </si>
+  <si>
     <t>NVDY</t>
   </si>
   <si>
@@ -2244,18 +2406,24 @@
     <t>EDM2.DE</t>
   </si>
   <si>
+    <t>PAAA</t>
+  </si>
+  <si>
     <t>XHB</t>
   </si>
   <si>
-    <t>PAAA</t>
-  </si>
-  <si>
     <t>VCLT</t>
   </si>
   <si>
+    <t>BSCU</t>
+  </si>
+  <si>
     <t>DBPK.DE</t>
   </si>
   <si>
+    <t>VBR</t>
+  </si>
+  <si>
     <t>BLV</t>
   </si>
   <si>
@@ -2268,10 +2436,13 @@
     <t>TSLY</t>
   </si>
   <si>
+    <t>IMBA.L</t>
+  </si>
+  <si>
     <t>MOAT</t>
   </si>
   <si>
-    <t>IMBA.L</t>
+    <t>FDVV</t>
   </si>
   <si>
     <t>AVUV</t>
@@ -2295,18 +2466,33 @@
     <t>MCHI</t>
   </si>
   <si>
+    <t>IBTG</t>
+  </si>
+  <si>
+    <t>HYMB</t>
+  </si>
+  <si>
     <t>DRIP</t>
   </si>
   <si>
+    <t>RPG</t>
+  </si>
+  <si>
     <t>PCY</t>
   </si>
   <si>
+    <t>DIVO</t>
+  </si>
+  <si>
     <t>MSTU</t>
   </si>
   <si>
     <t>LYQL.DE</t>
   </si>
   <si>
+    <t>CLOI</t>
+  </si>
+  <si>
     <t>VUSB</t>
   </si>
   <si>
@@ -2316,12 +2502,27 @@
     <t>SPYD</t>
   </si>
   <si>
+    <t>EEMV</t>
+  </si>
+  <si>
+    <t>FSEC</t>
+  </si>
+  <si>
     <t>MSTZ</t>
   </si>
   <si>
+    <t>AVDE</t>
+  </si>
+  <si>
+    <t>XMHQ</t>
+  </si>
+  <si>
     <t>7568.HK</t>
   </si>
   <si>
+    <t>XEQT.TO</t>
+  </si>
+  <si>
     <t>HMAX.TO</t>
   </si>
   <si>
@@ -2340,6 +2541,12 @@
     <t>REET</t>
   </si>
   <si>
+    <t>ITM</t>
+  </si>
+  <si>
+    <t>SCHV</t>
+  </si>
+  <si>
     <t>MINT</t>
   </si>
   <si>
@@ -2358,28 +2565,58 @@
     <t>AMLP</t>
   </si>
   <si>
+    <t>AMZY</t>
+  </si>
+  <si>
     <t>IBTE.L</t>
   </si>
   <si>
+    <t>AVUS</t>
+  </si>
+  <si>
+    <t>CGCV</t>
+  </si>
+  <si>
     <t>SCHO</t>
   </si>
   <si>
+    <t>EWS</t>
+  </si>
+  <si>
+    <t>BTCX-B.TO</t>
+  </si>
+  <si>
     <t>ILF</t>
   </si>
   <si>
+    <t>BUFQ</t>
+  </si>
+  <si>
+    <t>VHT</t>
+  </si>
+  <si>
     <t>XIU.TO</t>
   </si>
   <si>
     <t>3033.HK</t>
   </si>
   <si>
+    <t>FBCG</t>
+  </si>
+  <si>
     <t>IBTC.SW</t>
   </si>
   <si>
+    <t>DFAS</t>
+  </si>
+  <si>
     <t>HPYT.TO</t>
   </si>
   <si>
-    <t>FVD.L</t>
+    <t>CGMS</t>
+  </si>
+  <si>
+    <t>DBO</t>
   </si>
   <si>
     <t>BBJP</t>
@@ -2391,6 +2628,9 @@
     <t>IAUM</t>
   </si>
   <si>
+    <t>FGRO.NE</t>
+  </si>
+  <si>
     <t>SETFNIF50.NS</t>
   </si>
   <si>
@@ -2400,12 +2640,21 @@
     <t>HTRB</t>
   </si>
   <si>
+    <t>BSCP</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
     <t>DYNF</t>
   </si>
   <si>
     <t>AAAU</t>
   </si>
   <si>
+    <t>IGM</t>
+  </si>
+  <si>
     <t>7266.HK</t>
   </si>
   <si>
@@ -2430,15 +2679,18 @@
     <t>ICGA.DE</t>
   </si>
   <si>
+    <t>DFUV</t>
+  </si>
+  <si>
     <t>SMST</t>
   </si>
   <si>
+    <t>DTLE.L</t>
+  </si>
+  <si>
     <t>IWP</t>
   </si>
   <si>
-    <t>DTLE.L</t>
-  </si>
-  <si>
     <t>FENY</t>
   </si>
   <si>
@@ -2448,6 +2700,12 @@
     <t>IDTG.L</t>
   </si>
   <si>
+    <t>DFCF</t>
+  </si>
+  <si>
+    <t>SBIT</t>
+  </si>
+  <si>
     <t>AGQ</t>
   </si>
   <si>
@@ -2457,12 +2715,18 @@
     <t>LIQUIDBEES.NS</t>
   </si>
   <si>
+    <t>SECT</t>
+  </si>
+  <si>
     <t>MOM100.NS</t>
   </si>
   <si>
     <t>IUAA.L</t>
   </si>
   <si>
+    <t>ITA</t>
+  </si>
+  <si>
     <t>BKAG</t>
   </si>
   <si>
@@ -2481,12 +2745,24 @@
     <t>CRUD.L</t>
   </si>
   <si>
+    <t>DUHP</t>
+  </si>
+  <si>
     <t>TSL3.L</t>
   </si>
   <si>
+    <t>FBL</t>
+  </si>
+  <si>
     <t>XBI</t>
   </si>
   <si>
+    <t>SCZ</t>
+  </si>
+  <si>
+    <t>FVD</t>
+  </si>
+  <si>
     <t>URTY</t>
   </si>
   <si>
@@ -2514,12 +2790,30 @@
     <t>IGIB</t>
   </si>
   <si>
+    <t>DFUS</t>
+  </si>
+  <si>
     <t>IHYA.L</t>
   </si>
   <si>
+    <t>FDN</t>
+  </si>
+  <si>
     <t>PSQ</t>
   </si>
   <si>
+    <t>LVHI</t>
+  </si>
+  <si>
+    <t>FTGC</t>
+  </si>
+  <si>
+    <t>EUFN</t>
+  </si>
+  <si>
+    <t>BSCV</t>
+  </si>
+  <si>
     <t>MAGS</t>
   </si>
   <si>
@@ -2547,7 +2841,7 @@
     <t>SHLD</t>
   </si>
   <si>
-    <t>NPF.NZ</t>
+    <t>HYEM</t>
   </si>
   <si>
     <t>HYLS</t>
@@ -2574,6 +2868,9 @@
     <t>UVXY</t>
   </si>
   <si>
+    <t>CGGO</t>
+  </si>
+  <si>
     <t>OUNZ</t>
   </si>
   <si>
@@ -2589,39 +2886,60 @@
     <t>MSOX</t>
   </si>
   <si>
+    <t>IAGG</t>
+  </si>
+  <si>
     <t>MIDD.L</t>
   </si>
   <si>
     <t>YANG</t>
   </si>
   <si>
+    <t>FNDA</t>
+  </si>
+  <si>
     <t>TSLQ.L</t>
   </si>
   <si>
     <t>SDIA.L</t>
   </si>
   <si>
+    <t>CASH.TO</t>
+  </si>
+  <si>
     <t>SPXU</t>
   </si>
   <si>
     <t>512660.SS</t>
   </si>
   <si>
+    <t>JPIB</t>
+  </si>
+  <si>
     <t>ANGL</t>
   </si>
   <si>
+    <t>0XC5.L</t>
+  </si>
+  <si>
     <t>JPEA.L</t>
   </si>
   <si>
     <t>CGCB</t>
   </si>
   <si>
+    <t>STIP</t>
+  </si>
+  <si>
+    <t>IBDT</t>
+  </si>
+  <si>
+    <t>AGGG.L</t>
+  </si>
+  <si>
     <t>IAI</t>
   </si>
   <si>
-    <t>AGGG.L</t>
-  </si>
-  <si>
     <t>7588.HK</t>
   </si>
   <si>
@@ -2640,12 +2958,18 @@
     <t>HXD.TO</t>
   </si>
   <si>
+    <t>DFEM</t>
+  </si>
+  <si>
     <t>IUHC.L</t>
   </si>
   <si>
     <t>AVEM</t>
   </si>
   <si>
+    <t>VFV.TO</t>
+  </si>
+  <si>
     <t>BITB</t>
   </si>
   <si>
@@ -2655,6 +2979,9 @@
     <t>3067.HK</t>
   </si>
   <si>
+    <t>XCEM</t>
+  </si>
+  <si>
     <t>GUSH</t>
   </si>
   <si>
@@ -2664,9 +2991,15 @@
     <t>IEI</t>
   </si>
   <si>
+    <t>VFLO</t>
+  </si>
+  <si>
     <t>IUSN.DE</t>
   </si>
   <si>
+    <t>PFXF</t>
+  </si>
+  <si>
     <t>SDVY</t>
   </si>
   <si>
@@ -2676,18 +3009,30 @@
     <t>ISTB</t>
   </si>
   <si>
+    <t>AVDV</t>
+  </si>
+  <si>
+    <t>JCPB</t>
+  </si>
+  <si>
+    <t>IBDU</t>
+  </si>
+  <si>
     <t>BITI</t>
   </si>
   <si>
     <t>VHAI</t>
   </si>
   <si>
+    <t>FHLC</t>
+  </si>
+  <si>
+    <t>FBND</t>
+  </si>
+  <si>
     <t>GBIL</t>
   </si>
   <si>
-    <t>FBND</t>
-  </si>
-  <si>
     <t>SPHY</t>
   </si>
   <si>
@@ -2697,12 +3042,12 @@
     <t>XRT</t>
   </si>
   <si>
+    <t>SDOW</t>
+  </si>
+  <si>
     <t>QQQ5.L</t>
   </si>
   <si>
-    <t>SDOW</t>
-  </si>
-  <si>
     <t>HQD.TO</t>
   </si>
   <si>
@@ -2715,6 +3060,9 @@
     <t>OM3F.DE</t>
   </si>
   <si>
+    <t>DFIS</t>
+  </si>
+  <si>
     <t>SPMB</t>
   </si>
   <si>
@@ -2724,12 +3072,12 @@
     <t>SGOV</t>
   </si>
   <si>
+    <t>ISF.L</t>
+  </si>
+  <si>
     <t>7552.HK</t>
   </si>
   <si>
-    <t>ISF.L</t>
-  </si>
-  <si>
     <t>XLU</t>
   </si>
   <si>
@@ -2769,6 +3117,9 @@
     <t>XLG</t>
   </si>
   <si>
+    <t>IDEV</t>
+  </si>
+  <si>
     <t>EWH</t>
   </si>
   <si>
@@ -2808,6 +3159,9 @@
     <t>3109.HK</t>
   </si>
   <si>
+    <t>SPMO</t>
+  </si>
+  <si>
     <t>DOG</t>
   </si>
   <si>
@@ -2820,37 +3174,64 @@
     <t>USMV</t>
   </si>
   <si>
+    <t>FTCS</t>
+  </si>
+  <si>
     <t>KRE</t>
   </si>
   <si>
+    <t>DFSD</t>
+  </si>
+  <si>
     <t>CONL</t>
   </si>
   <si>
     <t>INDA</t>
   </si>
   <si>
+    <t>QDTE</t>
+  </si>
+  <si>
     <t>IUSV</t>
   </si>
   <si>
+    <t>IJK</t>
+  </si>
+  <si>
     <t>AIGI.L</t>
   </si>
   <si>
+    <t>SPBO</t>
+  </si>
+  <si>
+    <t>SOXQ</t>
+  </si>
+  <si>
     <t>EMBC.SW</t>
   </si>
   <si>
     <t>SHY</t>
   </si>
   <si>
+    <t>IYT</t>
+  </si>
+  <si>
     <t>TSLR</t>
   </si>
   <si>
     <t>KORU</t>
   </si>
   <si>
+    <t>NAIL</t>
+  </si>
+  <si>
+    <t>FXI</t>
+  </si>
+  <si>
     <t>SHC.PA</t>
   </si>
   <si>
-    <t>FXI</t>
+    <t>FTSL</t>
   </si>
   <si>
     <t>SHV</t>
@@ -2883,6 +3264,15 @@
     <t>XLC</t>
   </si>
   <si>
+    <t>DGRW</t>
+  </si>
+  <si>
+    <t>MRSK</t>
+  </si>
+  <si>
+    <t>IBTH</t>
+  </si>
+  <si>
     <t>IDTL.L</t>
   </si>
   <si>
@@ -2916,12 +3306,12 @@
     <t>3115.HK</t>
   </si>
   <si>
+    <t>ACWX</t>
+  </si>
+  <si>
     <t>EWW</t>
   </si>
   <si>
-    <t>ACWX</t>
-  </si>
-  <si>
     <t>XOP</t>
   </si>
   <si>
@@ -2934,6 +3324,9 @@
     <t>MON100.NS</t>
   </si>
   <si>
+    <t>CACB.TO</t>
+  </si>
+  <si>
     <t>BOIL</t>
   </si>
   <si>
@@ -2961,6 +3354,9 @@
     <t>TQQQ</t>
   </si>
   <si>
+    <t>DBA</t>
+  </si>
+  <si>
     <t>IBDS</t>
   </si>
   <si>
@@ -2988,9 +3384,18 @@
     <t>TECL</t>
   </si>
   <si>
+    <t>QAI</t>
+  </si>
+  <si>
     <t>EWJ</t>
   </si>
   <si>
+    <t>CGBL</t>
+  </si>
+  <si>
+    <t>IWO</t>
+  </si>
+  <si>
     <t>LEMD.L</t>
   </si>
   <si>
@@ -3000,6 +3405,9 @@
     <t>ARKG</t>
   </si>
   <si>
+    <t>CGUS</t>
+  </si>
+  <si>
     <t>HOD.TO</t>
   </si>
   <si>
@@ -3015,21 +3423,36 @@
     <t>HSD.TO</t>
   </si>
   <si>
+    <t>BSCR</t>
+  </si>
+  <si>
+    <t>DIHP</t>
+  </si>
+  <si>
     <t>SVOL</t>
   </si>
   <si>
     <t>EAGG</t>
   </si>
   <si>
+    <t>BSCQ</t>
+  </si>
+  <si>
     <t>XCS7.L</t>
   </si>
   <si>
+    <t>VRP</t>
+  </si>
+  <si>
     <t>IEAC.L</t>
   </si>
   <si>
     <t>FPE</t>
   </si>
   <si>
+    <t>IBDR</t>
+  </si>
+  <si>
     <t>TWM</t>
   </si>
   <si>
@@ -3048,6 +3471,9 @@
     <t>3BRS.MI</t>
   </si>
   <si>
+    <t>FTCB</t>
+  </si>
+  <si>
     <t>SGOL</t>
   </si>
   <si>
@@ -3069,9 +3495,18 @@
     <t>SAWD.L</t>
   </si>
   <si>
+    <t>BOND</t>
+  </si>
+  <si>
+    <t>TDIV</t>
+  </si>
+  <si>
     <t>IOZ.AX</t>
   </si>
   <si>
+    <t>INFL</t>
+  </si>
+  <si>
     <t>GSC</t>
   </si>
   <si>
@@ -3081,12 +3516,12 @@
     <t>FLXC.L</t>
   </si>
   <si>
+    <t>SCHI</t>
+  </si>
+  <si>
     <t>IESU.L</t>
   </si>
   <si>
-    <t>SCHI</t>
-  </si>
-  <si>
     <t>EFV</t>
   </si>
   <si>
@@ -3099,12 +3534,18 @@
     <t>EWY</t>
   </si>
   <si>
+    <t>KSTR</t>
+  </si>
+  <si>
     <t>HOU.TO</t>
   </si>
   <si>
     <t>CIBR</t>
   </si>
   <si>
+    <t>ACIO</t>
+  </si>
+  <si>
     <t>SDS</t>
   </si>
   <si>
@@ -3117,12 +3558,12 @@
     <t>XLI</t>
   </si>
   <si>
+    <t>2823.HK</t>
+  </si>
+  <si>
     <t>PDBC</t>
   </si>
   <si>
-    <t>2823.HK</t>
-  </si>
-  <si>
     <t>5QQQ.L</t>
   </si>
   <si>
@@ -3156,9 +3597,6 @@
     <t>UBT</t>
   </si>
   <si>
-    <t>ESAP.DE</t>
-  </si>
-  <si>
     <t>AAPU</t>
   </si>
   <si>
@@ -3177,6 +3615,9 @@
     <t>JDST</t>
   </si>
   <si>
+    <t>DFIV</t>
+  </si>
+  <si>
     <t>RWM</t>
   </si>
   <si>
@@ -3207,27 +3648,27 @@
     <t>TSLZ</t>
   </si>
   <si>
+    <t>COMM.L</t>
+  </si>
+  <si>
     <t>REMX</t>
   </si>
   <si>
-    <t>COMM.L</t>
-  </si>
-  <si>
     <t>BSLNIFTY.NS</t>
   </si>
   <si>
     <t>PGX</t>
   </si>
   <si>
-    <t>0XC5.IL</t>
-  </si>
-  <si>
     <t>MAFANG.NS</t>
   </si>
   <si>
     <t>NIFTYBEES.NS</t>
   </si>
   <si>
+    <t>PRF</t>
+  </si>
+  <si>
     <t>SCHH</t>
   </si>
   <si>
@@ -3243,6 +3684,12 @@
     <t>XSPD.L</t>
   </si>
   <si>
+    <t>PPH</t>
+  </si>
+  <si>
+    <t>HODL</t>
+  </si>
+  <si>
     <t>ICLN</t>
   </si>
   <si>
@@ -3264,18 +3711,39 @@
     <t>CONY</t>
   </si>
   <si>
+    <t>FDL</t>
+  </si>
+  <si>
     <t>XPE3.L</t>
   </si>
   <si>
+    <t>HGU.TO</t>
+  </si>
+  <si>
     <t>FNDX</t>
   </si>
   <si>
+    <t>MLPX</t>
+  </si>
+  <si>
     <t>7300.HK</t>
   </si>
   <si>
+    <t>EDZ</t>
+  </si>
+  <si>
     <t>KBWB</t>
   </si>
   <si>
+    <t>IHI</t>
+  </si>
+  <si>
+    <t>EMLC</t>
+  </si>
+  <si>
+    <t>BTCC.TO</t>
+  </si>
+  <si>
     <t>NVDD</t>
   </si>
   <si>
@@ -3285,12 +3753,12 @@
     <t>SPTI</t>
   </si>
   <si>
+    <t>IS04.DE</t>
+  </si>
+  <si>
     <t>VDPA.L</t>
   </si>
   <si>
-    <t>IS04.DE</t>
-  </si>
-  <si>
     <t>BX4.PA</t>
   </si>
   <si>
@@ -3300,15 +3768,24 @@
     <t>FEZ</t>
   </si>
   <si>
+    <t>PBW</t>
+  </si>
+  <si>
     <t>ITEK.L</t>
   </si>
   <si>
     <t>SLV</t>
   </si>
   <si>
+    <t>EIDO</t>
+  </si>
+  <si>
     <t>SEIX</t>
   </si>
   <si>
+    <t>DFEN</t>
+  </si>
+  <si>
     <t>UBXX.L</t>
   </si>
   <si>
@@ -3318,6 +3795,9 @@
     <t>IUSG</t>
   </si>
   <si>
+    <t>KNG</t>
+  </si>
+  <si>
     <t>XIC.TO</t>
   </si>
   <si>
@@ -3327,6 +3807,9 @@
     <t>SJNK</t>
   </si>
   <si>
+    <t>URNM</t>
+  </si>
+  <si>
     <t>PAVE</t>
   </si>
   <si>
@@ -3345,6 +3828,9 @@
     <t>FLTR</t>
   </si>
   <si>
+    <t>VONV</t>
+  </si>
+  <si>
     <t>TSLT</t>
   </si>
   <si>
@@ -3357,6 +3843,9 @@
     <t>RING</t>
   </si>
   <si>
+    <t>PWZ</t>
+  </si>
+  <si>
     <t>IASH.L</t>
   </si>
   <si>
@@ -3369,16 +3858,22 @@
     <t>SUB</t>
   </si>
   <si>
+    <t>JGRO</t>
+  </si>
+  <si>
     <t>SPMD</t>
   </si>
   <si>
+    <t>DFAE</t>
+  </si>
+  <si>
     <t>SPYV</t>
   </si>
   <si>
     <t>IBB</t>
   </si>
   <si>
-    <t>TWH.NZ</t>
+    <t>OMFL</t>
   </si>
   <si>
     <t>IWDG.L</t>
@@ -3396,6 +3891,9 @@
     <t>MSFU</t>
   </si>
   <si>
+    <t>HSU.TO</t>
+  </si>
+  <si>
     <t>VYMI</t>
   </si>
   <si>
@@ -3405,9 +3903,18 @@
     <t>DRN</t>
   </si>
   <si>
+    <t>TAIL</t>
+  </si>
+  <si>
     <t>I500.AS</t>
   </si>
   <si>
+    <t>EDOC</t>
+  </si>
+  <si>
+    <t>IWY</t>
+  </si>
+  <si>
     <t>RECS</t>
   </si>
   <si>
@@ -3417,12 +3924,18 @@
     <t>PFF</t>
   </si>
   <si>
+    <t>JBBB</t>
+  </si>
+  <si>
     <t>IUIT.L</t>
   </si>
   <si>
     <t>CNYB.L</t>
   </si>
   <si>
+    <t>IBTF</t>
+  </si>
+  <si>
     <t>GOVZ</t>
   </si>
   <si>
@@ -3438,13 +3951,25 @@
     <t>CWB</t>
   </si>
   <si>
+    <t>ESGD</t>
+  </si>
+  <si>
     <t>QYLD</t>
   </si>
   <si>
+    <t>TCAF</t>
+  </si>
+  <si>
+    <t>SLVP</t>
+  </si>
+  <si>
+    <t>TBIL</t>
+  </si>
+  <si>
     <t>ACWI</t>
   </si>
   <si>
-    <t>TBIL</t>
+    <t>WEBL</t>
   </si>
   <si>
     <t>ALUM.L</t>
@@ -3453,15 +3978,18 @@
     <t>DLR.TO</t>
   </si>
   <si>
+    <t>TBT</t>
+  </si>
+  <si>
     <t>XLB</t>
   </si>
   <si>
-    <t>TBT</t>
-  </si>
-  <si>
     <t>XSD2.L</t>
   </si>
   <si>
+    <t>DFIC</t>
+  </si>
+  <si>
     <t>SRLN</t>
   </si>
   <si>
@@ -3489,12 +4017,24 @@
     <t>USIG</t>
   </si>
   <si>
+    <t>EWM</t>
+  </si>
+  <si>
+    <t>IBDW</t>
+  </si>
+  <si>
     <t>SUK2.L</t>
   </si>
   <si>
     <t>SPSB</t>
   </si>
   <si>
+    <t>IWS</t>
+  </si>
+  <si>
+    <t>DBEF</t>
+  </si>
+  <si>
     <t>GVI</t>
   </si>
   <si>
@@ -3528,15 +4068,27 @@
     <t>FALN</t>
   </si>
   <si>
+    <t>POCT</t>
+  </si>
+  <si>
     <t>CGGR</t>
   </si>
   <si>
     <t>ASHR</t>
   </si>
   <si>
+    <t>EPP</t>
+  </si>
+  <si>
     <t>SPHQ</t>
   </si>
   <si>
+    <t>DVY</t>
+  </si>
+  <si>
+    <t>GUNR</t>
+  </si>
+  <si>
     <t>EZU</t>
   </si>
   <si>
@@ -3549,15 +4101,24 @@
     <t>CGCP</t>
   </si>
   <si>
+    <t>SPHD</t>
+  </si>
+  <si>
     <t>RSPT</t>
   </si>
   <si>
     <t>NVDU</t>
   </si>
   <si>
+    <t>DUG</t>
+  </si>
+  <si>
     <t>EHYA.AS</t>
   </si>
   <si>
+    <t>TOTL</t>
+  </si>
+  <si>
     <t>3WHL.L</t>
   </si>
   <si>
@@ -3576,6 +4137,9 @@
     <t>CPSEETF.NS</t>
   </si>
   <si>
+    <t>AAXJ</t>
+  </si>
+  <si>
     <t>DS2P.L</t>
   </si>
   <si>
@@ -3585,64 +4149,103 @@
     <t>HXT.TO</t>
   </si>
   <si>
+    <t>ZAG.TO</t>
+  </si>
+  <si>
     <t>SETFGOLD.NS</t>
   </si>
   <si>
+    <t>BABX</t>
+  </si>
+  <si>
     <t>AMZU</t>
   </si>
   <si>
     <t>IBTE</t>
   </si>
   <si>
+    <t>IWDA.L</t>
+  </si>
+  <si>
     <t>FNDF</t>
   </si>
   <si>
-    <t>IWDA.L</t>
-  </si>
-  <si>
     <t>XLP</t>
   </si>
   <si>
     <t>TS3S.L</t>
   </si>
   <si>
+    <t>ACWV</t>
+  </si>
+  <si>
     <t>HNU.TO</t>
   </si>
   <si>
     <t>VUAA.L</t>
   </si>
   <si>
+    <t>XSMO</t>
+  </si>
+  <si>
     <t>IGLT.L</t>
   </si>
   <si>
     <t>ZROZ</t>
   </si>
   <si>
+    <t>IBDV</t>
+  </si>
+  <si>
+    <t>WEBS</t>
+  </si>
+  <si>
     <t>FNGU</t>
   </si>
   <si>
     <t>TAN</t>
   </si>
   <si>
+    <t>BSCT</t>
+  </si>
+  <si>
     <t>SCHZ</t>
   </si>
   <si>
+    <t>WEAT</t>
+  </si>
+  <si>
     <t>TZA</t>
   </si>
   <si>
+    <t>DON</t>
+  </si>
+  <si>
     <t>ASHR.L</t>
   </si>
   <si>
+    <t>UCON</t>
+  </si>
+  <si>
+    <t>TBF</t>
+  </si>
+  <si>
     <t>HEFA</t>
   </si>
   <si>
     <t>SOXS</t>
   </si>
   <si>
+    <t>JQUA</t>
+  </si>
+  <si>
     <t>ES3.SI</t>
   </si>
   <si>
     <t>TI5G.L</t>
+  </si>
+  <si>
+    <t>IVOL</t>
   </si>
   <si>
     <t>Benchmark Symbol</t>
@@ -4006,7 +4609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A626"/>
+  <dimension ref="A1:A633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7142,6 +7745,41 @@
         <v>625</v>
       </c>
     </row>
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7149,7 +7787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A653"/>
+  <dimension ref="A1:A852"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7157,3267 +7795,4262 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>642</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>658</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>483</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>623</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>532</v>
+        <v>685</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>676</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>677</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>561</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>681</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>682</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>563</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>684</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>690</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>696</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>697</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>699</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>703</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>707</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>476</v>
+        <v>715</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>720</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>256</v>
+        <v>736</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>730</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>282</v>
+        <v>740</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>335</v>
+        <v>747</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>741</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>457</v>
+        <v>753</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>748</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>334</v>
+        <v>763</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>562</v>
+        <v>778</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>606</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>773</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>70</v>
+        <v>784</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>781</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>170</v>
+        <v>805</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>432</v>
+        <v>809</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>800</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>522</v>
+        <v>813</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>275</v>
+        <v>815</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>822</v>
+        <v>569</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>823</v>
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>23</v>
+        <v>834</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>830</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>492</v>
+        <v>844</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>388</v>
+        <v>846</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>534</v>
+        <v>855</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>574</v>
+        <v>170</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>868</v>
+        <v>61</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>291</v>
+        <v>881</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>869</v>
+        <v>436</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>874</v>
+        <v>527</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>876</v>
+        <v>277</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>530</v>
+        <v>889</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>177</v>
+        <v>898</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>274</v>
+        <v>910</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>25</v>
+        <v>911</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>903</v>
+        <v>23</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>917</v>
+        <v>494</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>430</v>
+        <v>931</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>920</v>
+        <v>388</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>600</v>
+        <v>939</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>928</v>
+        <v>547</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>21</v>
+        <v>946</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>279</v>
+        <v>948</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>514</v>
+        <v>950</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>77</v>
+        <v>954</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>62</v>
+        <v>956</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>940</v>
+        <v>957</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>136</v>
+        <v>962</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>125</v>
+        <v>967</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>949</v>
+        <v>968</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>311</v>
+        <v>581</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>950</v>
+        <v>969</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>297</v>
+        <v>970</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>83</v>
+        <v>972</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>456</v>
+        <v>973</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>953</v>
+        <v>292</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>955</v>
+        <v>976</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>956</v>
+        <v>977</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>957</v>
+        <v>978</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>157</v>
+        <v>979</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>966</v>
+        <v>536</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>968</v>
+        <v>989</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>969</v>
+        <v>990</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>970</v>
+        <v>991</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>971</v>
+        <v>992</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>972</v>
+        <v>195</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>973</v>
+        <v>993</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>974</v>
+        <v>994</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>975</v>
+        <v>995</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>976</v>
+        <v>996</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>978</v>
+        <v>998</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>979</v>
+        <v>999</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>981</v>
+        <v>177</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>982</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>984</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>546</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>517</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>985</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>986</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>987</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>988</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>989</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>990</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>991</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>992</v>
+        <v>275</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>993</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>995</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>996</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>997</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>998</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>999</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>1000</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>1001</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>1008</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>1016</v>
+        <v>433</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>1017</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>1018</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>1020</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>1021</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>1025</v>
+        <v>606</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>1035</v>
+        <v>21</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>373</v>
+        <v>280</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>1038</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>1039</v>
+        <v>520</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>1041</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>1043</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>498</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>1047</v>
+        <v>77</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>1048</v>
+        <v>62</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>1049</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>1051</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>1054</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>1055</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>1056</v>
+        <v>135</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>1057</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>1058</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>1059</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>1060</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>1062</v>
+        <v>124</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>1064</v>
+        <v>310</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>1066</v>
+        <v>298</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>1068</v>
+        <v>83</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>1069</v>
+        <v>459</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>1074</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>1079</v>
+        <v>157</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>520</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>1090</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>1091</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>1092</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>1094</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>1095</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>341</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>462</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>316</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>1105</v>
+        <v>552</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>1106</v>
+        <v>522</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>539</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>1111</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>1112</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>1114</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>308</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>1115</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>1118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>1119</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>1123</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>471</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>1132</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>344</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>535</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>1141</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>1142</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>1143</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>1144</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>1145</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>1146</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>1147</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>1148</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>1149</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>1150</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>1151</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>1152</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>524</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>1157</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>1158</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>1160</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>1162</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>1163</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>1165</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>1166</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>1167</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>1169</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>1170</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>1171</v>
+        <v>374</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>1172</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>1173</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>1174</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>1175</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>1176</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>1178</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>1179</v>
+        <v>502</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>1180</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>1181</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>1182</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>1183</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>1184</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>1185</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>1186</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>1187</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>1188</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>1189</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>1191</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>1192</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>1193</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>1194</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>1195</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>1196</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>239</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>1198</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>1199</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>1200</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>1201</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>1202</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>1203</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>580</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>8</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>1206</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>386</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>1207</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>1208</v>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" t="s">
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
@@ -10435,12 +12068,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1209</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1210</v>
+        <v>1411</v>
       </c>
     </row>
   </sheetData>
